--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>523145.1239405943</v>
+        <v>513540.1689350464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621779</v>
+        <v>7765049.28162178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951109</v>
+        <v>6187346.75695111</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7711093.615311884</v>
+        <v>7651754.929486052</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>79.99166789182526</v>
+        <v>209.234647520558</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -722,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368963</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -820,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>101.6816128081186</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>251.7082699217153</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -959,7 +961,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>22.24184669399752</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.6594333092501665</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>191.9284811707547</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>98.94574135710867</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>128.3097650166881</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.3556847256274</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>103.7188377436893</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>405.2521924655305</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.4858442804937</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -1783,7 +1785,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>142.5359303380062</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.483595459579969</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1859,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>86.14767836534774</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>152.4366936181585</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>183.2814680955354</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18.57815195584334</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2296,16 +2298,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672388</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2326,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>54.2295853978245</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751809</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2536,10 +2538,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2570,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>39.64108301376439</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>261.9522503562252</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>177.3516742227375</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>300.7823595432042</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2858,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>98.40348751227842</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>58.11593919665221</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.42227043795236</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3490,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>174.4275996389298</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.9677285220512</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>95.54331465629893</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.166248813512</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>4.208816168492726</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3982,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>392.4208820523424</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>138.4594393130394</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,10 +4194,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.7197528998416</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="C2" t="n">
-        <v>543.5951622131117</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="D2" t="n">
-        <v>543.5951622131117</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="E2" t="n">
-        <v>543.5951622131117</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="F2" t="n">
-        <v>122.5647501667993</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="G2" t="n">
-        <v>122.5647501667993</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
@@ -4340,7 +4342,7 @@
         <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="O2" t="n">
         <v>1329.636426430007</v>
@@ -4349,31 +4351,31 @@
         <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.416726816583</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W2" t="n">
-        <v>1354.656425951752</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X2" t="n">
-        <v>1354.656425951752</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.7197528998416</v>
+        <v>339.4649771211734</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>219.3581718355396</v>
+        <v>219.3581718355393</v>
       </c>
       <c r="K3" t="n">
-        <v>675.1644281008383</v>
+        <v>675.164428100838</v>
       </c>
       <c r="L3" t="n">
-        <v>1192.007362767164</v>
+        <v>675.164428100838</v>
       </c>
       <c r="M3" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4440,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>832.6574571037158</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>661.5640846654323</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>558.8553848592519</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>558.8553848592519</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>558.8553848592519</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>558.8553848592519</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1020.35716349776</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1020.35716349776</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1020.35716349776</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>1020.35716349776</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.0158633283044</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.356235076093</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.595934211262</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="X5" t="n">
-        <v>696.9525363802143</v>
+        <v>852.9229383460014</v>
       </c>
       <c r="Y5" t="n">
-        <v>296.0158633283044</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796118</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4762,13 +4764,13 @@
         <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4647920236465</v>
+        <v>229.4647920236464</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>229.4647920236464</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>229.4647920236464</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.76508562960205</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C8" t="n">
-        <v>41.76508562960205</v>
+        <v>2087.588187228334</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1637.32663704188</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1253.566336177049</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>852.9229383460014</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>451.9862652940915</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M9" t="n">
-        <v>1221.566882129793</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129793</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1059.950756782464</v>
+        <v>501.9589259941554</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>330.8655535558719</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>171.3709088787819</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4987,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.950756782464</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="Y10" t="n">
-        <v>1059.950756782464</v>
+        <v>689.6586323881997</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>946.9209937025716</v>
+        <v>543.7918484562142</v>
       </c>
       <c r="C11" t="n">
-        <v>946.9209937025716</v>
+        <v>543.7918484562142</v>
       </c>
       <c r="D11" t="n">
-        <v>542.4570637956322</v>
+        <v>543.7918484562142</v>
       </c>
       <c r="E11" t="n">
-        <v>128.1168483125289</v>
+        <v>543.7918484562142</v>
       </c>
       <c r="F11" t="n">
-        <v>128.1168483125289</v>
+        <v>543.7918484562142</v>
       </c>
       <c r="G11" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H11" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L11" t="n">
-        <v>497.1688317915616</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.011766457887</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N11" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5075,16 +5077,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X11" t="n">
-        <v>1687.610883649055</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.674210597145</v>
+        <v>954.0130281207037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.257211227551</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O12" t="n">
-        <v>2048.100145893876</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P12" t="n">
         <v>2058.694762117472</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5239,10 +5241,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.908632525021</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.784041838291</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.784041838291</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E14" t="n">
-        <v>1268.784041838291</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F14" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G14" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M14" t="n">
-        <v>1054.568412147452</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O14" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1287.356892823507</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962253</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N15" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1014.752890035065</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="C16" t="n">
-        <v>843.6595175967814</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="D16" t="n">
-        <v>684.1648729196913</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="E16" t="n">
-        <v>523.2540577880108</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="F16" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X16" t="n">
-        <v>1427.188295040345</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.452596429109</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1686.112302376752</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="C17" t="n">
-        <v>1275.987711690022</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D17" t="n">
-        <v>871.5237817830823</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L17" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M17" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O17" t="n">
         <v>2088.254281480102</v>
@@ -5543,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="X17" t="n">
-        <v>1687.610883649055</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="Y17" t="n">
-        <v>1687.610883649055</v>
+        <v>2001.236424545407</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L18" t="n">
-        <v>704.7239474634679</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M18" t="n">
-        <v>1221.566882129793</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O18" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5695,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>1206.821599434726</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>1206.821599434726</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.572457336103</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E20" t="n">
-        <v>899.2322418529996</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M21" t="n">
-        <v>93.2436976906228</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>675.164428100838</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>913.9039397142094</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C22" t="n">
-        <v>895.138129657802</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D22" t="n">
-        <v>735.6434849807119</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E22" t="n">
-        <v>574.7326698490315</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U22" t="n">
-        <v>913.9039397142094</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="V22" t="n">
-        <v>913.9039397142094</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="W22" t="n">
-        <v>913.9039397142094</v>
+        <v>1012.951985451324</v>
       </c>
       <c r="X22" t="n">
-        <v>913.9039397142094</v>
+        <v>774.6081233110078</v>
       </c>
       <c r="Y22" t="n">
-        <v>913.9039397142094</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5974,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6066,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.9745577685416</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>413.9745577685416</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>413.9745577685416</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>413.9745577685416</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>413.9745577685416</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4431.619105667321</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>4148.820958213445</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>3874.935213152967</v>
       </c>
       <c r="W25" t="n">
-        <v>826.4099627738212</v>
+        <v>3595.865548661841</v>
       </c>
       <c r="X25" t="n">
-        <v>826.4099627738212</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="Y25" t="n">
-        <v>601.6742641625859</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2502.881125286859</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C26" t="n">
-        <v>2092.756534600129</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1688.29260469319</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>1273.952389210086</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>852.921977163774</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>444.1936930566062</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6266,10 +6268,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3314.038978003258</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y26" t="n">
-        <v>2913.102304951348</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.182536368609</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.182536368609</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.182536368609</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6412,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3743.816268336454</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3360.055967471622</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>2959.412569640574</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.462840695405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>417.3694682571215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6655,16 +6657,16 @@
         <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.295707834299</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1100.295707834299</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.898245700685</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>776.1625470894494</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>1478.666907101365</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>1253.93120849013</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4630.445217422097</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7026,7 +7028,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1353.680646442718</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1074.610981951593</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>836.267119811276</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3536.245462056399</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3135.602064225352</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>649.6473156351464</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C40" t="n">
-        <v>649.6473156351464</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>649.6473156351464</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>649.6473156351464</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1526.134195668747</v>
       </c>
       <c r="U40" t="n">
-        <v>1153.452678737507</v>
+        <v>1243.336048214871</v>
       </c>
       <c r="V40" t="n">
-        <v>1153.452678737507</v>
+        <v>969.4503031543929</v>
       </c>
       <c r="W40" t="n">
-        <v>874.3830142463817</v>
+        <v>690.3806386632673</v>
       </c>
       <c r="X40" t="n">
-        <v>874.3830142463817</v>
+        <v>452.0367765229507</v>
       </c>
       <c r="Y40" t="n">
-        <v>649.6473156351464</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7439,22 +7441,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3450.08414315125</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.440745320202</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7496,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
         <v>2139.732893541123</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>590.2873592492926</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C43" t="n">
-        <v>590.2873592492926</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>201.2948304276971</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
         <v>93.2436976906228</v>
@@ -7591,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>828.6312213896092</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X43" t="n">
-        <v>590.2873592492926</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y43" t="n">
-        <v>590.2873592492926</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1678.033101815613</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.908511128883</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1267.908511128883</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>871.5237817830823</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F44" t="n">
-        <v>450.4933697367699</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>537.7254774811266</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1054.568412147452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2088.254281480102</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2088.254281480102</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2088.254281480102</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2088.254281480102</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>234.5779431922353</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>234.5779431922353</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>751.4208778585605</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>1268.263812524886</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>1785.106747191211</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>1785.106747191211</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1482.784574803352</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1243.235835780054</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>960.4376883261787</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>686.5519432657005</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>407.4822787745749</v>
       </c>
     </row>
   </sheetData>
@@ -7988,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
-        <v>334.2508956958897</v>
+        <v>293.2845869185511</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>230.7561945635731</v>
+        <v>230.756194563573</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L5" t="n">
-        <v>537.3610023606261</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>502.6011371814505</v>
       </c>
       <c r="N6" t="n">
-        <v>67.67798733913774</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>532.4592375477433</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,19 +8692,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>549.1401736751965</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>593.8823835359368</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8711,7 +8713,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>395.7562197346337</v>
       </c>
       <c r="P12" t="n">
-        <v>64.96126755189056</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8930,25 +8932,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>553.2940084590247</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9164,19 +9166,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>594.2603172363631</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>70.59911775623679</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>493.821586277062</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9480,7 +9482,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9489,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>841.9067396726143</v>
+        <v>232.580349157323</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>194.539943489316</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
@@ -9729,7 +9731,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9887,7 +9889,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O26" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P26" t="n">
         <v>628.1510783507341</v>
@@ -9951,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
@@ -9960,19 +9962,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>743.5567912259809</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>583.7666955189151</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10130,10 +10132,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10425,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,10 +10676,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10829,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M42" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>596.4554908421626</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>362.9022490996783</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,7 +22549,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22556,16 +22558,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>227.8077445067339</v>
+        <v>98.56476487800114</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>56.21808542220043</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>154.3150748581473</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22835,7 +22837,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>374.3951171587395</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>405.3639114706124</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,19 +23077,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>154.4106979461294</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679198</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>30.99194196367566</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,16 +23229,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.76328314221718</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>300.9221635224068</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8667754023140901</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>161.8533348363904</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>93.42449318090726</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>404.6353724082646</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23783,7 +23785,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>133.836740847262</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -23795,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>70.05164800696446</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>213.6458382258554</v>
       </c>
     </row>
     <row r="21">
@@ -24127,22 +24129,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>150.8042867580573</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24175,7 +24177,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788412</v>
       </c>
     </row>
     <row r="23">
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>111.3483017658875</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.893130557884007</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>45.84716204233317</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>45.55681957367995</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>137.556936006635</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>177.8444843222612</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>102.5059940158878</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25363,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25558,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>41.01708610846346</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>141.609936976766</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.756449042671079</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>153.6908820618264</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.01419322081109</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>17.77593127592979</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.06841112584945</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533444.798734063</v>
+        <v>533444.7987340629</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533444.798734063</v>
+        <v>533444.7987340629</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533444.7987340629</v>
+        <v>533444.798734063</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812240.3312490855</v>
+        <v>533444.798734063</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812240.3312490857</v>
+        <v>812240.3312490858</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812240.3312490856</v>
+        <v>812240.3312490857</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812240.3312490856</v>
+        <v>812240.3312490857</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812240.3312490855</v>
+        <v>812240.3312490857</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>533444.7987340632</v>
+        <v>812240.3312490857</v>
       </c>
     </row>
   </sheetData>
@@ -26326,19 +26328,19 @@
         <v>180746.0634767999</v>
       </c>
       <c r="G2" t="n">
+        <v>180746.0634767999</v>
+      </c>
+      <c r="H2" t="n">
         <v>180746.0634768</v>
       </c>
-      <c r="H2" t="n">
-        <v>275166.2341583393</v>
-      </c>
       <c r="I2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.234158339</v>
       </c>
       <c r="J2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="K2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="L2" t="n">
         <v>275166.2341583392</v>
@@ -26353,7 +26355,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="P2" t="n">
-        <v>180746.0634767999</v>
+        <v>275166.2341583392</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>171115.5499734838</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="C4" t="n">
-        <v>48718.21749193841</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="D4" t="n">
         <v>48718.21749193841</v>
@@ -26433,16 +26435,16 @@
         <v>48718.21749193841</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474131</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="I4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="J4" t="n">
         <v>74374.35696474132</v>
       </c>
       <c r="K4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.3569647413</v>
       </c>
       <c r="L4" t="n">
         <v>74374.35696474131</v>
@@ -26457,7 +26459,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>48718.21749193842</v>
+        <v>74374.35696474131</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,7 +26487,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487332</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108296.7289867501</v>
+        <v>-108296.72898675</v>
       </c>
       <c r="C6" t="n">
-        <v>66658.78090636409</v>
+        <v>66658.780906364</v>
       </c>
       <c r="D6" t="n">
-        <v>66658.78090636397</v>
+        <v>66658.78090636391</v>
       </c>
       <c r="E6" t="n">
         <v>100286.3809063639</v>
@@ -26534,19 +26536,19 @@
         <v>100286.3809063639</v>
       </c>
       <c r="G6" t="n">
+        <v>100286.3809063639</v>
+      </c>
+      <c r="H6" t="n">
         <v>100286.380906364</v>
       </c>
-      <c r="H6" t="n">
-        <v>-43690.74357092472</v>
-      </c>
       <c r="I6" t="n">
-        <v>129926.6669487245</v>
+        <v>-41188.88302475936</v>
       </c>
       <c r="J6" t="n">
-        <v>-6668.133857170469</v>
+        <v>-6668.133857170353</v>
       </c>
       <c r="K6" t="n">
-        <v>129926.6669487246</v>
+        <v>129926.6669487247</v>
       </c>
       <c r="L6" t="n">
         <v>129926.6669487246</v>
@@ -26558,10 +26560,10 @@
         <v>129926.6669487245</v>
       </c>
       <c r="O6" t="n">
+        <v>129926.6669487246</v>
+      </c>
+      <c r="P6" t="n">
         <v>129926.6669487245</v>
-      </c>
-      <c r="P6" t="n">
-        <v>100286.3809063639</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>1165.546221132785</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.2170912967376</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179.3869557635731</v>
+        <v>179.386955763573</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L5" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="N6" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>474.8949538093259</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="P12" t="n">
-        <v>10.70163254908682</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>788.7133462788644</v>
+        <v>179.386955763573</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.425419678467</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
@@ -36449,7 +36451,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36607,7 +36609,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O26" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P26" t="n">
         <v>534.50171506985</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>685.9925074875634</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,10 +36852,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R29" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M42" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>500.9700927793178</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>306.2096305948396</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>513540.1689350464</v>
+        <v>509307.2964113775</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.28162178</v>
+        <v>7765049.281621779</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.75695111</v>
+        <v>6187346.756951105</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.5387410179587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>209.234647520558</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -715,7 +715,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -724,7 +724,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368963</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>42.53944252213982</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>83.53569367057737</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>22.24184669399752</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220189</v>
+        <v>134.1885291524017</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6594333092501665</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>329.6030624988635</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.3097650166881</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>43.73227063629127</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1353,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>103.7188377436893</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>182.1960340888585</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>41.24458363092483</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.4858442804937</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>379.683756059143</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.0149076090959</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>27.53518124660992</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>86.14767836534774</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.4366936181585</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>117.780005467875</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.2814680955354</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.5952110672388</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>228.2601210751809</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>101.6409518870421</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2572,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>261.9522503562252</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2797,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>177.3516742227375</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>85.25432609134864</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>362.5761659788956</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>156.8296905607016</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3328,10 +3328,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>354.2586798869617</v>
       </c>
       <c r="X35" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3511,19 +3511,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>95.54331465629893</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3909,7 +3909,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097036</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>34.54409607236295</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3985,16 +3985,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4594393130394</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>220.3668054024668</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339.4649771211734</v>
+        <v>849.1499363715408</v>
       </c>
       <c r="C2" t="n">
-        <v>339.4649771211734</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D2" t="n">
-        <v>339.4649771211734</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E2" t="n">
-        <v>339.4649771211734</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F2" t="n">
-        <v>339.4649771211734</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G2" t="n">
-        <v>339.4649771211734</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>295.9505570973564</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>812.7934917636815</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817052</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522209</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X2" t="n">
-        <v>339.4649771211734</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.4649771211734</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>219.3581718355393</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>675.164428100838</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>675.164428100838</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4442,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>84.73421949034935</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.76508562960203</v>
+        <v>944.4352462872621</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960203</v>
+        <v>944.4352462872621</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960203</v>
+        <v>944.4352462872621</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960203</v>
+        <v>944.4352462872621</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>523.4048342409496</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811263</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147451</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.149751022951</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>875.3894501581201</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X5" t="n">
-        <v>852.9229383460014</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="Y5" t="n">
-        <v>451.9862652940915</v>
+        <v>1354.656425951752</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585604</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4647920236464</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236464</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236464</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="C8" t="n">
-        <v>2087.588187228334</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="D8" t="n">
-        <v>1683.124257321394</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.784041838291</v>
+        <v>461.0492346750173</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>461.0492346750173</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147451</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147451</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1054.568412147451</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.9589259941554</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>330.8655535558719</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>171.3709088787819</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5443774486778</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>689.6586323881997</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>689.6586323881997</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>689.6586323881997</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.6586323881997</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>543.7918484562142</v>
+        <v>1368.000135152739</v>
       </c>
       <c r="C11" t="n">
-        <v>543.7918484562142</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="D11" t="n">
-        <v>543.7918484562142</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="E11" t="n">
-        <v>543.7918484562142</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F11" t="n">
-        <v>543.7918484562142</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G11" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H11" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>1075.450954962252</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M11" t="n">
-        <v>1592.293889628578</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N11" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.416726816582</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>1354.656425951751</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>954.0130281207037</v>
+        <v>1768.936808204649</v>
       </c>
       <c r="Y11" t="n">
-        <v>954.0130281207037</v>
+        <v>1368.000135152739</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>690.384199457534</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.227134123859</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N12" t="n">
-        <v>1724.070068790184</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960203</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>877.1357131590178</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="C14" t="n">
-        <v>877.1357131590178</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D14" t="n">
-        <v>877.1357131590178</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E14" t="n">
-        <v>462.7954976759145</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>41.76508562960203</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M14" t="n">
-        <v>497.1688317915614</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N14" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O14" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
         <v>2047.697635790537</v>
@@ -5308,22 +5308,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V14" t="n">
-        <v>1287.356892823507</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W14" t="n">
-        <v>1287.356892823507</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X14" t="n">
-        <v>1287.356892823507</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="Y14" t="n">
-        <v>1287.356892823507</v>
+        <v>963.4874758419446</v>
       </c>
     </row>
     <row r="15">
@@ -5351,13 +5351,13 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
         <v>497.5713418949007</v>
@@ -5366,10 +5366,10 @@
         <v>1014.414276561226</v>
       </c>
       <c r="M15" t="n">
+        <v>1014.414276561226</v>
+      </c>
+      <c r="N15" t="n">
         <v>1531.257211227551</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
         <v>1571.411346813777</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W16" t="n">
-        <v>503.2668642681101</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X16" t="n">
-        <v>503.2668642681101</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2001.236424545407</v>
+        <v>1285.691534869224</v>
       </c>
       <c r="C17" t="n">
-        <v>2001.236424545407</v>
+        <v>875.5669441824938</v>
       </c>
       <c r="D17" t="n">
-        <v>1596.772494638468</v>
+        <v>875.5669441824938</v>
       </c>
       <c r="E17" t="n">
-        <v>1182.432279155364</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F17" t="n">
-        <v>761.4018671090519</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G17" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>537.7254774811263</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>1054.568412147451</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M17" t="n">
-        <v>1571.411346813777</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N17" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q17" t="n">
         <v>2088.254281480102</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2001.236424545407</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U17" t="n">
-        <v>2001.236424545407</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V17" t="n">
-        <v>2001.236424545407</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W17" t="n">
-        <v>2001.236424545407</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X17" t="n">
-        <v>2001.236424545407</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y17" t="n">
-        <v>2001.236424545407</v>
+        <v>1695.912714533713</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M18" t="n">
-        <v>1075.450954962252</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N18" t="n">
         <v>1571.411346813777</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>865.1454348405214</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>694.0520624022379</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>534.5574177251478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>1206.821599434726</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.821599434726</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>1052.845141234566</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1270.693821706375</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C20" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D20" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M20" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N20" t="n">
-        <v>692.8507596625946</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O20" t="n">
         <v>1209.69369432892</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U20" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V20" t="n">
-        <v>1866.047797426961</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W20" t="n">
-        <v>1866.047797426961</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X20" t="n">
-        <v>1866.047797426961</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y20" t="n">
-        <v>1680.915001370864</v>
+        <v>160.7347881224051</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>497.5713418949007</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L21" t="n">
-        <v>497.5713418949007</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M21" t="n">
-        <v>497.5713418949007</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N21" t="n">
-        <v>675.164428100838</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O21" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P21" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1848.705542456804</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1565.907395002928</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1292.02164994245</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1012.951985451324</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>774.6081233110078</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>423.0977207349383</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.074801429505</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4431.619105667321</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.820958213445</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3874.935213152967</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3595.865548661841</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3357.521686521525</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2238.282892603803</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C26" t="n">
-        <v>1828.158301917073</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D26" t="n">
-        <v>1423.694372010133</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X26" t="n">
-        <v>3049.440745320202</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2648.504072268292</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>741.8628115185547</v>
+        <v>704.368908940975</v>
       </c>
       <c r="M27" t="n">
-        <v>741.8628115185547</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N27" t="n">
-        <v>1615.520903630173</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>1615.520903630173</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>1228.182536368609</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.182536368609</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N30" t="n">
         <v>1228.182536368609</v>
@@ -6654,19 +6654,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V31" t="n">
-        <v>826.4099627738212</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W31" t="n">
-        <v>547.3402982826956</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6785,19 +6785,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1383.093855288175</v>
+        <v>1464.228765462279</v>
       </c>
       <c r="U34" t="n">
-        <v>1100.295707834299</v>
+        <v>1464.228765462279</v>
       </c>
       <c r="V34" t="n">
-        <v>826.4099627738212</v>
+        <v>1190.343020401801</v>
       </c>
       <c r="W34" t="n">
-        <v>547.3402982826956</v>
+        <v>911.2733559106757</v>
       </c>
       <c r="X34" t="n">
-        <v>308.996436142379</v>
+        <v>672.929493770359</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6976,13 +6976,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3697.79927886809</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7159,16 +7159,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
         <v>93.2436976906228</v>
@@ -7362,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1526.134195668747</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1243.336048214871</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>969.4503031543929</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>690.3806386632673</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>452.0367765229507</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.0367765229507</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7444,19 +7444,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>592.7987223006619</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>1435.775802995229</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>692.7936626747511</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C43" t="n">
-        <v>521.7002902364676</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D43" t="n">
-        <v>362.2056455593776</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>201.2948304276971</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.572929820347</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X43" t="n">
-        <v>1105.229067680031</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.4933690687955</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E44" t="n">
-        <v>899.2322418529996</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H44" t="n">
         <v>179.5954603735497</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K45" t="n">
-        <v>741.8628115185547</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M45" t="n">
-        <v>741.8628115185547</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>741.8628115185547</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>407.4822787745749</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C46" t="n">
-        <v>407.4822787745749</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D46" t="n">
-        <v>407.4822787745749</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E46" t="n">
-        <v>407.4822787745749</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F46" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1482.784574803352</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1243.235835780054</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>960.4376883261787</v>
+        <v>974.1093544383208</v>
       </c>
       <c r="V46" t="n">
-        <v>686.5519432657005</v>
+        <v>974.1093544383208</v>
       </c>
       <c r="W46" t="n">
-        <v>407.4822787745749</v>
+        <v>974.1093544383208</v>
       </c>
       <c r="X46" t="n">
-        <v>407.4822787745749</v>
+        <v>974.1093544383208</v>
       </c>
       <c r="Y46" t="n">
-        <v>407.4822787745749</v>
+        <v>749.3736558270855</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>293.2845869185511</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>230.756194563573</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
@@ -8066,16 +8066,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525346</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
-        <v>502.6011371814505</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8312,7 +8312,7 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421622</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728292</v>
+        <v>392.2643757374374</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>537.3610023606261</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>593.8823835359368</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8771,28 +8771,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>359.4030239885891</v>
       </c>
       <c r="O12" t="n">
-        <v>395.7562197346337</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M14" t="n">
-        <v>553.2940084590247</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9011,19 +9011,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>98.31121191537929</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>590.1064824525346</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>537.3610023606261</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>87.31214281472352</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>554.1634861730674</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
         <v>95.48539806284482</v>
@@ -9412,13 +9412,13 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>493.821586277062</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>362.0354133794551</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9491,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>232.580349157323</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>194.539943489316</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9953,13 +9953,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>213.0023571290849</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9971,7 +9971,7 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>583.7666955189151</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10132,10 +10132,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>547.3465691139345</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>739.1859008813134</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10433,10 +10433,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10448,7 +10448,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10837,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>613.6913745331453</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11314,10 +11314,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>259.5802268498859</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22564,7 +22564,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>98.56476487800114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>143.2832668079641</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>321.1053075955188</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,10 +22837,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>374.3951171587395</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195428</v>
+        <v>142.0904386938126</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,22 +23023,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>405.3639114706124</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>75.03793876723262</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>30.99194196367566</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23269,13 +23269,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>300.9221635224068</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23317,16 +23317,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>214.4409297638785</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130049</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23515,7 +23515,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>161.8533348363904</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>16.953207793594</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>134.9699070214187</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>382.6616320816623</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>133.836740847262</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.05164800696446</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>288.3389623999695</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>213.6458382258554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.89313055788412</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>8.893130557884007</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25089,7 +25089,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>80.32356107236328</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>25.66401796922139</v>
       </c>
       <c r="X35" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>141.609936976766</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081109</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25836,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25848,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>201.4163274465505</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26073,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>46.06841112584945</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>59.60336057687033</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533444.798734063</v>
+        <v>533444.7987340629</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>533444.798734063</v>
+        <v>533444.7987340629</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>533444.798734063</v>
+        <v>533444.7987340629</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533444.798734063</v>
+        <v>533444.7987340629</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812240.3312490857</v>
+        <v>812240.3312490858</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812240.3312490857</v>
+        <v>812240.3312490858</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812240.3312490857</v>
+        <v>812240.3312490856</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812240.3312490857</v>
+        <v>812240.3312490855</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>180746.0634768</v>
       </c>
       <c r="C2" t="n">
+        <v>180746.0634767999</v>
+      </c>
+      <c r="D2" t="n">
         <v>180746.0634768</v>
       </c>
-      <c r="D2" t="n">
-        <v>180746.0634767999</v>
-      </c>
       <c r="E2" t="n">
-        <v>180746.0634767999</v>
+        <v>180746.0634768</v>
       </c>
       <c r="F2" t="n">
         <v>180746.0634767999</v>
       </c>
       <c r="G2" t="n">
-        <v>180746.0634767999</v>
+        <v>180746.0634768</v>
       </c>
       <c r="H2" t="n">
         <v>180746.0634768</v>
       </c>
       <c r="I2" t="n">
-        <v>275166.234158339</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="J2" t="n">
+        <v>275166.2341583393</v>
+      </c>
+      <c r="K2" t="n">
         <v>275166.2341583392</v>
-      </c>
-      <c r="K2" t="n">
-        <v>275166.2341583393</v>
       </c>
       <c r="L2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="N2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="O2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="P2" t="n">
         <v>275166.2341583392</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>171115.5499734838</v>
+        <v>171115.5499734837</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="C4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="D4" t="n">
         <v>48718.21749193841</v>
@@ -26438,13 +26438,13 @@
         <v>48718.21749193841</v>
       </c>
       <c r="I4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="J4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="K4" t="n">
-        <v>74374.3569647413</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="L4" t="n">
         <v>74374.35696474131</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108296.72898675</v>
+        <v>-108974.2578461441</v>
       </c>
       <c r="C6" t="n">
-        <v>66658.780906364</v>
+        <v>65981.25204696989</v>
       </c>
       <c r="D6" t="n">
-        <v>66658.78090636391</v>
+        <v>65981.25204696995</v>
       </c>
       <c r="E6" t="n">
-        <v>100286.3809063639</v>
+        <v>99608.85204696994</v>
       </c>
       <c r="F6" t="n">
-        <v>100286.3809063639</v>
+        <v>99608.85204696991</v>
       </c>
       <c r="G6" t="n">
-        <v>100286.3809063639</v>
+        <v>99608.85204697</v>
       </c>
       <c r="H6" t="n">
-        <v>100286.380906364</v>
+        <v>99608.85204696997</v>
       </c>
       <c r="I6" t="n">
-        <v>-41188.88302475936</v>
+        <v>-41369.46361740818</v>
       </c>
       <c r="J6" t="n">
-        <v>-6668.133857170353</v>
+        <v>-6848.714449819438</v>
       </c>
       <c r="K6" t="n">
-        <v>129926.6669487247</v>
+        <v>129746.0863560754</v>
       </c>
       <c r="L6" t="n">
-        <v>129926.6669487246</v>
+        <v>129746.0863560755</v>
       </c>
       <c r="M6" t="n">
-        <v>129926.6669487246</v>
+        <v>129746.0863560755</v>
       </c>
       <c r="N6" t="n">
-        <v>129926.6669487245</v>
+        <v>129746.0863560755</v>
       </c>
       <c r="O6" t="n">
-        <v>129926.6669487246</v>
+        <v>129746.0863560755</v>
       </c>
       <c r="P6" t="n">
-        <v>129926.6669487245</v>
+        <v>129746.0863560755</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.2507825193991</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179.386955763573</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M6" t="n">
-        <v>445.0368534430331</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>306.2096305948391</v>
       </c>
       <c r="O12" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M14" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35731,19 +35731,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>522.0635703700256</v>
+      </c>
+      <c r="O15" t="n">
         <v>40.55973291537929</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>400.9092955204426</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>306.2096305948397</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>179.386955763573</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>138.425419678467</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>156.8878333182358</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>529.5070605161113</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2320453030855</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
